--- a/Cosine_Similarity_Data.xlsx
+++ b/Cosine_Similarity_Data.xlsx
@@ -8,32 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1c98880db425f785/Desktop/Protocol Summarizer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="11_35F9CF8354281F0401621346FA09C4F27DC103B8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21FD1872-F291-4DBC-8C77-66149DE1E800}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="11_35F94293D1202D15842407B40F35584A61AF0AF7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DBF0295-5B1E-4F9D-8251-7B834E156E63}"/>
   <bookViews>
     <workbookView xWindow="108" yWindow="12" windowWidth="10500" windowHeight="12228" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Chunk Size</t>
   </si>
@@ -45,6 +33,12 @@
   </si>
   <si>
     <t>Confidence Diff Avg</t>
+  </si>
+  <si>
+    <t>Entropy</t>
+  </si>
+  <si>
+    <t>% Above .7</t>
   </si>
 </sst>
 </file>
@@ -97,6 +91,1498 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time (sec)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>302.56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>204.77</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>186.61</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>180.91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>168.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>141.36000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>149.54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>137.78</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>116.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D871-4F6D-9572-1EFCD1A504AA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="351423119"/>
+        <c:axId val="351424559"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Confidence Avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.77070000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77690000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78010000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78059999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.78149999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.78339999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78380000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7833</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.78320000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D871-4F6D-9572-1EFCD1A504AA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>% Above .7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.25672043010752688</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34274193548387089</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36827956989247312</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.39261744966442952</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.37903225806451613</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.34272300469483569</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.38172043010752688</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.40963855421686751</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.40268456375838918</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D871-4F6D-9572-1EFCD1A504AA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="351421199"/>
+        <c:axId val="351430799"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$D$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Confidence Diff Avg</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$2:$A$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>150</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>200</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>250</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>350</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>400</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>450</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>500</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$D$2:$D$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>8.1600000000000006E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>8.1600000000000006E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>8.14E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8.0299999999999996E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>8.0399999999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>8.1000000000000003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>8.0699999999999994E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7.9799999999999996E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8.0100000000000005E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-D871-4F6D-9572-1EFCD1A504AA}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$E$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Entropy</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$2:$A$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>150</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>200</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>250</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>300</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>350</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>400</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>450</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>500</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$E$2:$E$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>2.9821</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2.9824999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.9828999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2.9830999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2.9832000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2.9830999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2.9832000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2.9834000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2.9834000000000001</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-D871-4F6D-9572-1EFCD1A504AA}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="351423119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="351424559"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="351424559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="351423119"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="351430799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="351421199"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="351421199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="351430799"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>163830</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>567690</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE22A62D-D749-D00D-DE69-F96B22F42A70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -416,10 +1902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -427,9 +1913,11 @@
     <col min="1" max="1" width="9.3125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.83984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.89453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.3125" customWidth="1"/>
+    <col min="6" max="6" width="11.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -441,9 +1929,196 @@
       </c>
       <c r="D1" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>302.56</v>
+      </c>
+      <c r="C2">
+        <v>0.77070000000000005</v>
+      </c>
+      <c r="D2">
+        <v>8.1600000000000006E-2</v>
+      </c>
+      <c r="E2">
+        <v>2.9821</v>
+      </c>
+      <c r="F2">
+        <v>0.25672043010752688</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>150</v>
+      </c>
+      <c r="B3">
+        <v>204.77</v>
+      </c>
+      <c r="C3">
+        <v>0.77690000000000003</v>
+      </c>
+      <c r="D3">
+        <v>8.1600000000000006E-2</v>
+      </c>
+      <c r="E3">
+        <v>2.9824999999999999</v>
+      </c>
+      <c r="F3">
+        <v>0.34274193548387089</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>200</v>
+      </c>
+      <c r="B4">
+        <v>186.61</v>
+      </c>
+      <c r="C4">
+        <v>0.78010000000000002</v>
+      </c>
+      <c r="D4">
+        <v>8.14E-2</v>
+      </c>
+      <c r="E4">
+        <v>2.9828999999999999</v>
+      </c>
+      <c r="F4">
+        <v>0.36827956989247312</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>250</v>
+      </c>
+      <c r="B5">
+        <v>180.91</v>
+      </c>
+      <c r="C5">
+        <v>0.78059999999999996</v>
+      </c>
+      <c r="D5">
+        <v>8.0299999999999996E-2</v>
+      </c>
+      <c r="E5">
+        <v>2.9830999999999999</v>
+      </c>
+      <c r="F5">
+        <v>0.39261744966442952</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>300</v>
+      </c>
+      <c r="B6">
+        <v>168.05</v>
+      </c>
+      <c r="C6">
+        <v>0.78149999999999997</v>
+      </c>
+      <c r="D6">
+        <v>8.0399999999999999E-2</v>
+      </c>
+      <c r="E6">
+        <v>2.9832000000000001</v>
+      </c>
+      <c r="F6">
+        <v>0.37903225806451613</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>350</v>
+      </c>
+      <c r="B7">
+        <v>141.36000000000001</v>
+      </c>
+      <c r="C7">
+        <v>0.78339999999999999</v>
+      </c>
+      <c r="D7">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="E7">
+        <v>2.9830999999999999</v>
+      </c>
+      <c r="F7">
+        <v>0.34272300469483569</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>400</v>
+      </c>
+      <c r="B8">
+        <v>149.54</v>
+      </c>
+      <c r="C8">
+        <v>0.78380000000000005</v>
+      </c>
+      <c r="D8">
+        <v>8.0699999999999994E-2</v>
+      </c>
+      <c r="E8">
+        <v>2.9832000000000001</v>
+      </c>
+      <c r="F8">
+        <v>0.38172043010752688</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>450</v>
+      </c>
+      <c r="B9">
+        <v>137.78</v>
+      </c>
+      <c r="C9">
+        <v>0.7833</v>
+      </c>
+      <c r="D9">
+        <v>7.9799999999999996E-2</v>
+      </c>
+      <c r="E9">
+        <v>2.9834000000000001</v>
+      </c>
+      <c r="F9">
+        <v>0.40963855421686751</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>500</v>
+      </c>
+      <c r="B10">
+        <v>116.35</v>
+      </c>
+      <c r="C10">
+        <v>0.78320000000000001</v>
+      </c>
+      <c r="D10">
+        <v>8.0100000000000005E-2</v>
+      </c>
+      <c r="E10">
+        <v>2.9834000000000001</v>
+      </c>
+      <c r="F10">
+        <v>0.40268456375838918</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>